--- a/ConwayProject1Results.xlsx
+++ b/ConwayProject1Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seanc\eclipse-workspace\ConwayCSE347Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89374514-C7B7-40CD-8568-1C37DAFA18C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0865B5A-55B5-409E-828E-673A723F9AD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5001BDC8-480B-48E3-8AD3-D5354694D145}"/>
+    <workbookView xWindow="0" yWindow="2625" windowWidth="15375" windowHeight="7875" xr2:uid="{5001BDC8-480B-48E3-8AD3-D5354694D145}"/>
   </bookViews>
   <sheets>
     <sheet name="RESULTS" sheetId="1" r:id="rId1"/>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6AF3D3-517A-481F-91E6-C84251B4C1BD}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +490,9 @@
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="3" max="3" width="9.140625" style="6"/>
     <col min="5" max="5" width="9.140625" style="6"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="6"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="6"/>
   </cols>
   <sheetData>
